--- a/data/output_data5b.xlsx
+++ b/data/output_data5b.xlsx
@@ -63,7 +63,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.020340406493478957</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.020340406493478957</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.033471222581490705</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.033471222581490705</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -79,7 +79,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFER self Foremz ((Timber 1)) EU: 0.0</t>
+(TRANSFER self Foremz (Timber 1)) EU: 0.0</t>
   </si>
   <si>
     <t xml:space="preserve">

--- a/data/output_data5b.xlsx
+++ b/data/output_data5b.xlsx
@@ -49,7 +49,7 @@
     <t>Expected Utility: 0.5336644499999998</t>
   </si>
   <si>
-    <t>Expected Utility: 0.4359147754401492</t>
+    <t>Expected Utility: 0.37418043680777857</t>
   </si>
   <si>
     <t>Expected Utility: 0.25761847741850913</t>
